--- a/assets/418-runtime.xlsx
+++ b/assets/418-runtime.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/Desktop/CMU/618/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoxiao26/Desktop/Developer/DGBDT/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>#node</t>
   </si>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t>latedays running time vs #node</t>
-  </si>
-  <si>
-    <t>histogram binning time</t>
-  </si>
-  <si>
-    <t>communication time</t>
-  </si>
-  <si>
-    <t>tree building time</t>
   </si>
   <si>
     <t>single node OpenMP</t>
@@ -65,13 +56,25 @@
     <t>sci-kit learn</t>
   </si>
   <si>
-    <t>optimized sequential version</t>
+    <t>Optimized Sequential</t>
   </si>
   <si>
-    <t>current hybrid version</t>
+    <t>Hybrid Parallelism</t>
   </si>
   <si>
-    <t>Sequential</t>
+    <t>Tree Building</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Histogram Construction</t>
+  </si>
+  <si>
+    <t>Runtime on HIGGS Dataset</t>
+  </si>
+  <si>
+    <t>Naïve Sequential</t>
   </si>
 </sst>
 </file>
@@ -163,12 +166,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800"/>
-              <a:t>Distributed </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" sz="1800" baseline="0"/>
-              <a:t>Runtime vs #nodes (OpenMPI)</a:t>
+              <a:t>Training Time vs Number of Nodes on Latedays </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -219,7 +218,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tree building time</c:v>
+                  <c:v>Tree Building</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -265,7 +264,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>communication time</c:v>
+                  <c:v>Communication</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -311,7 +310,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>histogram binning time</c:v>
+                  <c:v>Histogram Construction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -358,16 +357,72 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2086674432"/>
-        <c:axId val="2086671072"/>
+        <c:axId val="705087536"/>
+        <c:axId val="705088064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2086674432"/>
+        <c:axId val="705087536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -404,7 +459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086671072"/>
+        <c:crossAx val="705088064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -412,7 +467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086671072"/>
+        <c:axId val="705088064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,6 +487,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0130232558139535"/>
+              <c:y val="0.385578465482512"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -463,7 +581,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086674432"/>
+        <c:crossAx val="705087536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -578,12 +696,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Single</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> Node Runtime vs #threads (OpenMP)</a:t>
+              <a:t>Training Time vs Number of Threads on GHC (OpenMP)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -634,7 +748,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>tree building time</c:v>
+                  <c:v>Tree Building</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -707,7 +821,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>histogram binning time</c:v>
+                  <c:v>Histogram Construction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -781,16 +895,73 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2129122464"/>
-        <c:axId val="2129125728"/>
+        <c:axId val="601802944"/>
+        <c:axId val="601805696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129122464"/>
+        <c:axId val="601802944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -827,7 +998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129125728"/>
+        <c:crossAx val="601805696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -835,7 +1006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2129125728"/>
+        <c:axId val="601805696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -855,6 +1026,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Time </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0202429149797571"/>
+              <c:y val="0.371378324672979"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -885,7 +1124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129122464"/>
+        <c:crossAx val="601802944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1001,7 +1240,425 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Runtime on HIGGS dataset</a:t>
+              <a:t>Sequential Training</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> Time for MSLR on GHC</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>sci-kit learn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Naïve Sequential</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optimized Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>259.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="707021936"/>
+        <c:axId val="707023984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="707021936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707023984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="707023984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Training Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0181818181818182"/>
+              <c:y val="0.386280881556472"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707021936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Training Time for HIGGS Dataset on GHC</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1124,10 +1781,10 @@
                   <c:v>sci-kit learn</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>optimized sequential version</c:v>
+                  <c:v>Optimized Sequential</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>current hybrid version</c:v>
+                  <c:v>Hybrid Parallelism</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1142,7 +1799,7 @@
                   <c:v>479.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149.0</c:v>
+                  <c:v>193.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.0</c:v>
@@ -1162,16 +1819,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2111910960"/>
-        <c:axId val="2146167872"/>
+        <c:axId val="705099536"/>
+        <c:axId val="705102432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111910960"/>
+        <c:axId val="705099536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1208,7 +1866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146167872"/>
+        <c:crossAx val="705102432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1216,7 +1874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146167872"/>
+        <c:axId val="705102432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,12 +1915,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Runtime (s)</a:t>
+                  <a:t>Training Time (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0151085907655282"/>
+              <c:y val="0.381355650412414"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1322,7 +1987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111910960"/>
+        <c:crossAx val="705099536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1491,6 +2156,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -3004,20 +3709,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1358900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3046,13 +4254,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3078,16 +4286,53 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>120649</xdr:colOff>
+      <xdr:colOff>158749</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>161181</xdr:rowOff>
+      <xdr:rowOff>173881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>279400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3375,7 +4620,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3424,7 +4669,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <f>B3-B5-B6</f>
@@ -3445,7 +4690,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3462,7 +4707,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -3488,7 +4733,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3498,12 +4743,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3543,7 +4788,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <f>B3-B5</f>
@@ -3568,7 +4813,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>29.6</v>
@@ -3596,19 +4841,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>259</v>
+      </c>
+      <c r="C3">
+        <v>149</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3617,28 +4893,28 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3646,7 +4922,7 @@
         <v>479</v>
       </c>
       <c r="C3">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="D3">
         <v>8</v>

--- a/assets/418-runtime.xlsx
+++ b/assets/418-runtime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>#node</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Naïve Sequential</t>
+  </si>
+  <si>
+    <t>scikit-learn</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" baseline="0"/>
-              <a:t>Training Time vs Number of Nodes on Latedays </a:t>
+              <a:t>Distributed Training Version 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -357,11 +360,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="705087536"/>
-        <c:axId val="705088064"/>
+        <c:axId val="253809024"/>
+        <c:axId val="241935792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="705087536"/>
+        <c:axId val="253809024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705088064"/>
+        <c:crossAx val="241935792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -467,7 +470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="705088064"/>
+        <c:axId val="241935792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,7 +584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705087536"/>
+        <c:crossAx val="253809024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -682,6 +685,536 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t>Distributed Training Version 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tree Building</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Communication</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Histogram Construction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="293189040"/>
+        <c:axId val="299343152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="293189040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299343152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="299343152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0130232558139535"/>
+              <c:y val="0.385578465482512"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293189040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -895,11 +1428,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="601802944"/>
-        <c:axId val="601805696"/>
+        <c:axId val="241998928"/>
+        <c:axId val="242007232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="601802944"/>
+        <c:axId val="241998928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +1531,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601805696"/>
+        <c:crossAx val="242007232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1006,7 +1539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="601805696"/>
+        <c:axId val="242007232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601802944"/>
+        <c:crossAx val="241998928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1205,7 +1738,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1365,7 +1898,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>sci-kit learn</c:v>
+                  <c:v>scikit-learn</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Naïve Sequential</c:v>
@@ -1406,11 +1939,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="707021936"/>
-        <c:axId val="707023984"/>
+        <c:axId val="253914112"/>
+        <c:axId val="253918592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="707021936"/>
+        <c:axId val="253914112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,7 +1986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="707023984"/>
+        <c:crossAx val="253918592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1461,7 +1994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="707023984"/>
+        <c:axId val="253918592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1574,7 +2107,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="707021936"/>
+        <c:crossAx val="253914112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1623,7 +2156,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1819,11 +2352,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="705099536"/>
-        <c:axId val="705102432"/>
+        <c:axId val="242113632"/>
+        <c:axId val="242118192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="705099536"/>
+        <c:axId val="242113632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,7 +2399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705102432"/>
+        <c:crossAx val="242118192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1874,7 +2407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="705102432"/>
+        <c:axId val="242118192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,7 +2520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705099536"/>
+        <c:crossAx val="242113632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2196,6 +2729,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -3207,7 +3780,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3411,22 +3984,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3531,8 +4105,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3664,19 +4238,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4212,20 +4787,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1358900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4239,6 +5317,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4323,16 +5433,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>158749</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>173881</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>793749</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4617,10 +5727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4720,6 +5830,95 @@
       </c>
       <c r="E6">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>9.18</v>
+      </c>
+      <c r="D13">
+        <v>6.9</v>
+      </c>
+      <c r="E13">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f>B13-B15-B16</f>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="C14">
+        <f>C13-C15-C16</f>
+        <v>3.2</v>
+      </c>
+      <c r="D14">
+        <f>D13-D15-D16</f>
+        <v>2.4800000000000004</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14" si="1">E13-E15-E16</f>
+        <v>1.7900000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.18</v>
+      </c>
+      <c r="D15">
+        <v>0.32</v>
+      </c>
+      <c r="E15">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>13.8</v>
+      </c>
+      <c r="C16">
+        <v>5.8</v>
+      </c>
+      <c r="D16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E16">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -4843,8 +6042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4862,7 +6061,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
